--- a/survey_shiny/bb4FAIR_app/tiering_score.xlsx
+++ b/survey_shiny/bb4FAIR_app/tiering_score.xlsx
@@ -15,48 +15,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
-  <si>
-    <t xml:space="preserve">Biobank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT contact person</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+  <si>
+    <t xml:space="preserve">Biobank ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT head</t>
   </si>
   <si>
     <t xml:space="preserve">dedicated personnel</t>
   </si>
   <si>
-    <t xml:space="preserve">ontologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">clinical record</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMS-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IT infrastructure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">storage</t>
+    <t xml:space="preserve">ontologies richness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">common data models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BIMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IT infrastructures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">massive storage</t>
   </si>
   <si>
     <t xml:space="preserve">IT components</t>
   </si>
   <si>
-    <t xml:space="preserve">DWH</t>
+    <t xml:space="preserve">data warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clinical data availability</t>
   </si>
   <si>
     <t xml:space="preserve">annotations</t>
   </si>
   <si>
-    <t xml:space="preserve">cross-reference data</t>
+    <t xml:space="preserve">registry data availability</t>
   </si>
   <si>
     <t xml:space="preserve">informed consent</t>
@@ -65,145 +65,115 @@
     <t xml:space="preserve">total_score</t>
   </si>
   <si>
+    <t xml:space="preserve">BB5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB14</t>
+  </si>
+  <si>
     <t xml:space="preserve">BB1</t>
   </si>
   <si>
+    <t xml:space="preserve">BB10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB34</t>
+  </si>
+  <si>
     <t xml:space="preserve">BB2</t>
   </si>
   <si>
+    <t xml:space="preserve">BB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB37</t>
+  </si>
+  <si>
     <t xml:space="preserve">BB3</t>
   </si>
   <si>
-    <t xml:space="preserve">BB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB6</t>
+    <t xml:space="preserve">BB8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BB16</t>
   </si>
   <si>
     <t xml:space="preserve">BB7</t>
   </si>
   <si>
-    <t xml:space="preserve">BB8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB16</t>
-  </si>
-  <si>
     <t xml:space="preserve">BB17</t>
   </si>
   <si>
-    <t xml:space="preserve">BB18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB21</t>
-  </si>
-  <si>
     <t xml:space="preserve">BB22</t>
   </si>
   <si>
-    <t xml:space="preserve">BB23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB35</t>
-  </si>
-  <si>
     <t xml:space="preserve">BB36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB37</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BB47</t>
   </si>
 </sst>
 </file>
@@ -596,31 +566,31 @@
         <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>3</v>
@@ -632,7 +602,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
@@ -640,16 +610,16 @@
         <v>17</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -658,16 +628,16 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -676,13 +646,13 @@
         <v>3</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -696,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -708,16 +678,16 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -726,13 +696,13 @@
         <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5">
@@ -746,10 +716,10 @@
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -758,13 +728,13 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
@@ -773,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5" t="n">
         <v>1</v>
@@ -782,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -799,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -808,22 +778,22 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N6" t="n">
         <v>1</v>
@@ -832,7 +802,7 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
@@ -858,19 +828,19 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -908,19 +878,19 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
@@ -932,7 +902,7 @@
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9">
@@ -946,7 +916,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -955,7 +925,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -964,25 +934,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10">
@@ -993,13 +963,13 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>1</v>
@@ -1008,31 +978,31 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11">
@@ -1046,10 +1016,10 @@
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
@@ -1064,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1073,16 +1043,16 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
@@ -1093,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1108,16 +1078,16 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -1132,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13">
@@ -1146,7 +1116,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -1158,13 +1128,13 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
@@ -1182,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
@@ -1196,7 +1166,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1205,22 +1175,22 @@
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
@@ -1232,7 +1202,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
@@ -1243,10 +1213,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1258,31 +1228,31 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N15" t="n">
         <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16">
@@ -1293,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1308,16 +1278,16 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1329,10 +1299,10 @@
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
@@ -1346,10 +1316,10 @@
         <v>4</v>
       </c>
       <c r="D17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>1</v>
@@ -1358,19 +1328,19 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
@@ -1382,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18">
@@ -1396,31 +1366,31 @@
         <v>4</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
@@ -1432,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19">
@@ -1443,10 +1413,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -1458,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1476,13 +1446,13 @@
         <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P19" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
@@ -1496,7 +1466,7 @@
         <v>4</v>
       </c>
       <c r="D20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -1505,34 +1475,34 @@
         <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
@@ -1549,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>1</v>
@@ -1558,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>3</v>
@@ -1593,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1608,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1632,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23">
@@ -1640,13 +1610,13 @@
         <v>37</v>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C23" t="n">
         <v>4</v>
       </c>
       <c r="D23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -1658,19 +1628,19 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>3</v>
@@ -1679,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -1693,7 +1663,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -1708,13 +1678,13 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -1723,16 +1693,16 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P24" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
@@ -1746,7 +1716,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -1758,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
@@ -1796,10 +1766,10 @@
         <v>4</v>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>1</v>
@@ -1808,7 +1778,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -1817,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -1826,13 +1796,13 @@
         <v>3</v>
       </c>
       <c r="N26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27">
@@ -1843,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>3</v>
@@ -1858,13 +1828,13 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -1873,16 +1843,16 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1893,10 +1863,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -1905,34 +1875,34 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K28" t="n">
         <v>2</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -1943,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -1958,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -1973,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
         <v>1</v>
@@ -1982,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30">
@@ -1996,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -2008,10 +1978,10 @@
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2020,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
@@ -2032,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -2046,43 +2016,43 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2096,7 +2066,7 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -2105,13 +2075,13 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2123,16 +2093,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33">
@@ -2143,10 +2113,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -2155,16 +2125,16 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -2176,13 +2146,13 @@
         <v>3</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34">
@@ -2193,31 +2163,31 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -2226,13 +2196,13 @@
         <v>3</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="n">
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2246,10 +2216,10 @@
         <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>1</v>
@@ -2261,16 +2231,16 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1</v>
@@ -2282,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36">
@@ -2296,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -2308,10 +2278,10 @@
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2320,19 +2290,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2343,37 +2313,37 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N37" t="n">
         <v>1</v>
@@ -2382,7 +2352,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2393,7 +2363,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -2405,534 +2375,34 @@
         <v>1</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="n">
-        <v>4</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
-        <v>1</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>2</v>
-      </c>
-      <c r="J39" t="n">
-        <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>2</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>3</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s">
-        <v>54</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>4</v>
-      </c>
-      <c r="D40" t="n">
-        <v>3</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>2</v>
-      </c>
-      <c r="J40" t="n">
-        <v>1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>3</v>
-      </c>
-      <c r="N40" t="n">
-        <v>1</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="B41" t="n">
-        <v>0</v>
-      </c>
-      <c r="C41" t="n">
-        <v>4</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>2</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2</v>
-      </c>
-      <c r="L41" t="n">
-        <v>2</v>
-      </c>
-      <c r="M41" t="n">
-        <v>3</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s">
-        <v>56</v>
-      </c>
-      <c r="B42" t="n">
-        <v>0</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" t="n">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
-      <c r="M42" t="n">
-        <v>2</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="s">
-        <v>57</v>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>4</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1</v>
-      </c>
-      <c r="G43" t="n">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>2</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
-      <c r="M43" t="n">
-        <v>3</v>
-      </c>
-      <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="n">
-        <v>0</v>
-      </c>
-      <c r="C44" t="n">
-        <v>4</v>
-      </c>
-      <c r="D44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E44" t="n">
-        <v>1</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1</v>
-      </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>2</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1</v>
-      </c>
-      <c r="K44" t="n">
-        <v>2</v>
-      </c>
-      <c r="L44" t="n">
-        <v>2</v>
-      </c>
-      <c r="M44" t="n">
-        <v>3</v>
-      </c>
-      <c r="N44" t="n">
-        <v>1</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>59</v>
-      </c>
-      <c r="B45" t="n">
-        <v>0</v>
-      </c>
-      <c r="C45" t="n">
-        <v>4</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1</v>
-      </c>
-      <c r="K45" t="n">
-        <v>2</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>3</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>60</v>
-      </c>
-      <c r="B46" t="n">
-        <v>0</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0</v>
-      </c>
-      <c r="D46" t="n">
-        <v>3</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="s">
-        <v>61</v>
-      </c>
-      <c r="B47" t="n">
-        <v>0</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="n">
-        <v>1</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s">
-        <v>62</v>
-      </c>
-      <c r="B48" t="n">
-        <v>0</v>
-      </c>
-      <c r="C48" t="n">
-        <v>4</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="n">
-        <v>1</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -2948,7 +2418,104 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2961,7 +2528,104 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" t="n">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
@@ -2974,7 +2638,104 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
